--- a/data/trans_dic/P70A03_2007-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70A03_2007-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,12%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>56,27; 67,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>29,2; 46,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>50,49; 59,62</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,89%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>61,18; 67,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>43,89; 52,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>56,36; 61,47</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,27%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>62,43; 72,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>51,95; 63,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>59,13; 66,95</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,29%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>62,19; 66,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>46,32; 52,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>57,42; 61,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A03_2007-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70A03_2007-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,27; 67,52</t>
+          <t>56,79; 67,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,2; 46,73</t>
+          <t>29,19; 46,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,49; 59,62</t>
+          <t>49,85; 59,59</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,18; 67,04</t>
+          <t>61,02; 67,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,89; 52,86</t>
+          <t>43,79; 53,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,36; 61,47</t>
+          <t>56,43; 61,33</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,43; 72,08</t>
+          <t>62,17; 71,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,95; 63,91</t>
+          <t>51,61; 64,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,13; 66,95</t>
+          <t>59,3; 67,27</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,19; 66,83</t>
+          <t>62,3; 66,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,32; 52,96</t>
+          <t>45,76; 53,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>57,42; 61,29</t>
+          <t>57,36; 61,33</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado algún reconocimiento médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>212341</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>49405</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>261746</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>194462; 229693</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38665; 61702</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>236736; 282967</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>659729</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>250766</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>910495</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>627147; 691098</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>226986; 274970</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>872466; 948211</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>253578</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>158501</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>412078</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>234774; 271387</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>141217; 175232</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>386194; 438087</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1525</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1125648</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>458672</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1584320</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1088826; 1165205</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>423044; 491797</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1532942; 1638806</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>